--- a/public/excel/StudentDetail_Demo1.xlsx
+++ b/public/excel/StudentDetail_Demo1.xlsx
@@ -365,7 +365,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -396,7 +396,7 @@
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Semester V,Semester VI,Semester VII,Semester VIII,Semester IX,Semester X"</formula1>
+      <formula1>"Semester IV,Semester V,Semester VI,Semester VII,Semester VIII,Semester IX,Semester X"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"MPSTME (MUMBAI),MPSTME (SHIR)"</formula1>
